--- a/04_notes/Rudd_fate.xlsx
+++ b/04_notes/Rudd_fate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TURNERN\Documents\For Github\Rudd-Ecology-HH\04_notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TURNERN\Documents\For Github\Rudd-Ecology-HH1\04_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0491CAC-43C0-4262-B649-EB832FE98DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C08B461-7E50-4B13-BDCB-B18FD8ADD1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="9030" windowWidth="29040" windowHeight="15720" xr2:uid="{4F3B4B96-9A9E-48FA-AEAD-70DC511E05B8}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4F3B4B96-9A9E-48FA-AEAD-70DC511E05B8}"/>
   </bookViews>
   <sheets>
     <sheet name="REMOVED" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
   <si>
     <t>Rudd ID</t>
   </si>
@@ -108,9 +108,6 @@
     <t>HAM-044 (CPM)</t>
   </si>
   <si>
-    <t>cant find abacus plot</t>
-  </si>
-  <si>
     <t>HAM-085</t>
   </si>
   <si>
@@ -136,6 +133,21 @@
   </si>
   <si>
     <t>HAM-20/37/5</t>
+  </si>
+  <si>
+    <t>East end</t>
+  </si>
+  <si>
+    <t>15-05-2025</t>
+  </si>
+  <si>
+    <t>goes offline at fishway</t>
+  </si>
+  <si>
+    <t>15-06-2024</t>
+  </si>
+  <si>
+    <t>15/05/2024</t>
   </si>
 </sst>
 </file>
@@ -259,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -292,6 +304,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE63293-6A80-42C1-B29F-CA5A3406E514}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -725,7 +738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>506</v>
       </c>
@@ -848,7 +861,9 @@
       <c r="A13" s="6">
         <v>9153</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
@@ -900,11 +915,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB6E3C8-9DD2-4B67-BC1A-D711FA8F69A9}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -941,6 +956,9 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
+      <c r="D2" s="12">
+        <v>45633</v>
+      </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
@@ -949,6 +967,9 @@
       <c r="A3">
         <v>510</v>
       </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -961,145 +982,163 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1366</v>
+        <v>515</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1">
-        <v>45292</v>
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1">
-        <v>45078</v>
+        <v>45292</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1">
-        <v>45089</v>
+        <v>45078</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>1398</v>
+        <v>1372</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1">
-        <v>45427</v>
+        <v>45089</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>9151</v>
+        <v>1374</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1">
-        <v>45108</v>
+        <v>21</v>
+      </c>
+      <c r="D9" s="12">
+        <v>45297</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>9152</v>
+        <v>1386</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="1">
-        <v>44563</v>
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>9154</v>
+        <v>1398</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1">
-        <v>44440</v>
+        <v>45427</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>9156</v>
+        <v>9151</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1">
-        <v>44811</v>
+        <v>45108</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>9160</v>
+        <v>9152</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1">
-        <v>44762</v>
+        <v>44563</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -1107,29 +1146,71 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>9162</v>
+        <v>9154</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1">
-        <v>44302</v>
+        <v>44440</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
+        <v>9156</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44811</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>9160</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44762</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>9162</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44302</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>9163</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D18" s="1">
         <v>44331</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E18" t="s">
         <v>9</v>
       </c>
     </row>
